--- a/Documenti/Modello Casi D'uso/UC Gestione Locazioni.xlsx
+++ b/Documenti/Modello Casi D'uso/UC Gestione Locazioni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,53 +13,65 @@
     <sheet name="Foglio3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>GESTIONE LOCAZIONI</t>
-  </si>
-  <si>
-    <t>IDENTIFICATORE</t>
-  </si>
-  <si>
-    <t>ID:11</t>
-  </si>
-  <si>
-    <t>BREVE DESCRIZIONE</t>
-  </si>
-  <si>
-    <t>Il locatore gestisce le proprie locazioni.</t>
-  </si>
-  <si>
-    <t>ATTORI PRIMARI</t>
-  </si>
-  <si>
-    <t>Locatore</t>
-  </si>
-  <si>
-    <t>ATTORI SECONDARI</t>
-  </si>
-  <si>
-    <t>Nessuno</t>
-  </si>
-  <si>
-    <t>PRECONDIZIONI</t>
-  </si>
-  <si>
-    <t>L'utente è registrato nel sistema e dunque in possesso di una propria area privata; 
+    <t xml:space="preserve">NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTIONE LOCAZIONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDENTIFICATORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID:6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREVE DESCRIZIONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il locatore gestisce le proprie locazioni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTORI PRIMARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locatore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTORI SECONDARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nessuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECONDIZIONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utente è registrato nel sistema e dunque in possesso di una propria area privata; 
 l'utente è loggato nel sistema.</t>
   </si>
   <si>
-    <t>PASSI DEL CASO D'USO</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">PASSI DEL CASO D'USO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">1. L'utente seleziona il box "Area proprietario" usufruendo così dei servizi messogli a disposizione in quanto “locatore”.
 </t>
     </r>
@@ -132,16 +144,16 @@
     </r>
   </si>
   <si>
-    <t>POSTCONDIZIONI</t>
-  </si>
-  <si>
-    <t>L'utente ha gestito le proprie locazioni; il sistema ha registrato le opportune modifiche</t>
-  </si>
-  <si>
-    <t>SEQUENZE DEGLI EVENTI ALTERNATIVE</t>
-  </si>
-  <si>
-    <t>2.1.2* - Il sistema respinge l' inserimento in quanto non conforme al modulo 
+    <t xml:space="preserve">POSTCONDIZIONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utente ha gestito le proprie locazioni; il sistema ha registrato le opportune modifiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEQUENZE DEGLI EVENTI ALTERNATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2* - Il sistema respinge l' inserimento in quanto non conforme al modulo 
 fornito all'utente (mancanza di dati e/o dati non nel formato richiesto)
 	     - L'utente viene reindirizzato alla pagina di  inserimento</t>
   </si>
@@ -151,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -274,15 +286,15 @@
   </sheetPr>
   <dimension ref="A2:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.2267206477733"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -418,7 +430,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
